--- a/Assets/Data/Excel/excel_audio_info.xlsx
+++ b/Assets/Data/Excel/excel_audio_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17535" windowHeight="9555"/>
+    <workbookView windowWidth="18135" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -49,148 +49,148 @@
     <t>类型0音效 1音乐 2环境音</t>
   </si>
   <si>
-    <t>music_langtaosha_1</t>
-  </si>
-  <si>
-    <t>music_yangchunbaixue_1</t>
-  </si>
-  <si>
-    <t>music_1</t>
-  </si>
-  <si>
-    <t>music_2</t>
-  </si>
-  <si>
-    <t>music_3</t>
-  </si>
-  <si>
-    <t>music_4</t>
-  </si>
-  <si>
-    <t>music_6</t>
-  </si>
-  <si>
-    <t>music_7</t>
-  </si>
-  <si>
-    <t>music_8</t>
-  </si>
-  <si>
-    <t>music_9</t>
-  </si>
-  <si>
-    <t>music_10</t>
-  </si>
-  <si>
-    <t>music_11</t>
-  </si>
-  <si>
-    <t>music_marry_1</t>
-  </si>
-  <si>
-    <t>sound_btn_3</t>
-  </si>
-  <si>
-    <t>sound_btn_2</t>
-  </si>
-  <si>
-    <t>sound_btn_1</t>
-  </si>
-  <si>
-    <t>sound_btn_6</t>
-  </si>
-  <si>
-    <t>sound_pay_1</t>
-  </si>
-  <si>
-    <t>sound_reward_2</t>
-  </si>
-  <si>
-    <t>sound_thunderstorm_1</t>
-  </si>
-  <si>
-    <t>sound_damage_1</t>
-  </si>
-  <si>
-    <t>sound_countdown_2</t>
-  </si>
-  <si>
-    <t>sound_countdown_1</t>
-  </si>
-  <si>
-    <t>sound_hit_1</t>
-  </si>
-  <si>
-    <t>sound_pay_3</t>
-  </si>
-  <si>
-    <t>sound_btn_5</t>
-  </si>
-  <si>
-    <t>sound_shot_1</t>
-  </si>
-  <si>
-    <t>sound_card_1</t>
-  </si>
-  <si>
-    <t>sound_btn_7</t>
-  </si>
-  <si>
-    <t>sound_fight_1</t>
-  </si>
-  <si>
-    <t>sound_fight_2</t>
-  </si>
-  <si>
-    <t>sound_fight_knife_1</t>
-  </si>
-  <si>
-    <t>sound_medicine_1</t>
-  </si>
-  <si>
-    <t>sound_show_1</t>
-  </si>
-  <si>
-    <t>sound_error_1</t>
-  </si>
-  <si>
-    <t>sound_set_1</t>
-  </si>
-  <si>
-    <t>sound_cook_1</t>
-  </si>
-  <si>
-    <t>sound_clean_1</t>
-  </si>
-  <si>
-    <t>sound_eat_1</t>
-  </si>
-  <si>
-    <t>sound_eat_2</t>
-  </si>
-  <si>
-    <t>sound_lock_1</t>
-  </si>
-  <si>
-    <t>sound_passive_1</t>
-  </si>
-  <si>
-    <t>sound_dice_1</t>
-  </si>
-  <si>
-    <t>sound_thunder_1</t>
-  </si>
-  <si>
-    <t>sound_door_1</t>
-  </si>
-  <si>
-    <t>sound_firecrackers_1</t>
-  </si>
-  <si>
-    <t>environment_rain_1</t>
-  </si>
-  <si>
-    <t>environment_wind_1</t>
+    <t>music_langtaosha_1.mp3</t>
+  </si>
+  <si>
+    <t>music_yangchunbaixue_1.mp3</t>
+  </si>
+  <si>
+    <t>music_1.mp3</t>
+  </si>
+  <si>
+    <t>music_2.mp3</t>
+  </si>
+  <si>
+    <t>music_3.mp3</t>
+  </si>
+  <si>
+    <t>music_4.mp3</t>
+  </si>
+  <si>
+    <t>music_6.mp3</t>
+  </si>
+  <si>
+    <t>music_7.mp3</t>
+  </si>
+  <si>
+    <t>music_8.mp3</t>
+  </si>
+  <si>
+    <t>music_9.mp3</t>
+  </si>
+  <si>
+    <t>music_10.mp3</t>
+  </si>
+  <si>
+    <t>music_11.mp3</t>
+  </si>
+  <si>
+    <t>music_marry_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_btn_3.wav</t>
+  </si>
+  <si>
+    <t>sound_btn_2.wav</t>
+  </si>
+  <si>
+    <t>sound_btn_1.wav</t>
+  </si>
+  <si>
+    <t>sound_btn_6.wav</t>
+  </si>
+  <si>
+    <t>sound_pay_1.wav</t>
+  </si>
+  <si>
+    <t>sound_reward_2.wav</t>
+  </si>
+  <si>
+    <t>sound_thunderstorm_1.wav</t>
+  </si>
+  <si>
+    <t>sound_damage_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_countdown_2.mp3</t>
+  </si>
+  <si>
+    <t>sound_countdown_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_hit_1.wav</t>
+  </si>
+  <si>
+    <t>sound_pay_3.wav</t>
+  </si>
+  <si>
+    <t>sound_btn_5.mp3</t>
+  </si>
+  <si>
+    <t>sound_shot_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_card_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_btn_7.mp3</t>
+  </si>
+  <si>
+    <t>sound_fight_1.wav</t>
+  </si>
+  <si>
+    <t>sound_fight_2.wav</t>
+  </si>
+  <si>
+    <t>sound_fight_knife_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_medicine_1.wav</t>
+  </si>
+  <si>
+    <t>sound_show_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_error_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_set_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_cook_1.wav</t>
+  </si>
+  <si>
+    <t>sound_clean_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_eat_1.wav</t>
+  </si>
+  <si>
+    <t>sound_eat_2.mp3</t>
+  </si>
+  <si>
+    <t>sound_lock_1.wav</t>
+  </si>
+  <si>
+    <t>sound_passive_1.mp3</t>
+  </si>
+  <si>
+    <t>sound_dice_1.wav</t>
+  </si>
+  <si>
+    <t>sound_thunder_1.wav</t>
+  </si>
+  <si>
+    <t>sound_door_1.wav</t>
+  </si>
+  <si>
+    <t>sound_firecrackers_1.mp3</t>
+  </si>
+  <si>
+    <t>environment_rain_1.mp3</t>
+  </si>
+  <si>
+    <t>environment_wind_1.wav</t>
   </si>
 </sst>
 </file>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1220,7 +1220,6 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4"/>
       <c r="D4">
         <v>1</v>
       </c>
@@ -1232,7 +1231,6 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5"/>
       <c r="D5">
         <v>1</v>
       </c>
@@ -1244,7 +1242,6 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6"/>
       <c r="D6">
         <v>1</v>
       </c>
@@ -1256,7 +1253,6 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7"/>
       <c r="D7">
         <v>1</v>
       </c>
@@ -1279,7 +1275,6 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9"/>
       <c r="D9">
         <v>1</v>
       </c>
@@ -1291,7 +1286,6 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10"/>
       <c r="D10">
         <v>1</v>
       </c>
@@ -1303,7 +1297,6 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11"/>
       <c r="D11">
         <v>1</v>
       </c>
@@ -1315,7 +1308,6 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12"/>
       <c r="D12">
         <v>1</v>
       </c>
@@ -1327,7 +1319,6 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13"/>
       <c r="D13">
         <v>1</v>
       </c>
@@ -1339,7 +1330,6 @@
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14"/>
       <c r="D14">
         <v>1</v>
       </c>
@@ -1351,7 +1341,6 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15"/>
       <c r="D15">
         <v>1</v>
       </c>
@@ -1363,7 +1352,6 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16"/>
       <c r="D16">
         <v>1</v>
       </c>
@@ -1375,7 +1363,6 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17"/>
       <c r="D17">
         <v>0</v>
       </c>
@@ -1387,7 +1374,6 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18"/>
       <c r="D18">
         <v>0</v>
       </c>
@@ -1399,7 +1385,6 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19"/>
       <c r="D19">
         <v>0</v>
       </c>
@@ -1411,7 +1396,6 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20"/>
       <c r="D20">
         <v>0</v>
       </c>
@@ -1423,7 +1407,6 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21"/>
       <c r="D21">
         <v>0</v>
       </c>
@@ -1435,7 +1418,6 @@
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22"/>
       <c r="D22">
         <v>0</v>
       </c>
@@ -1447,7 +1429,6 @@
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23"/>
       <c r="D23">
         <v>0</v>
       </c>
@@ -1459,7 +1440,6 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24"/>
       <c r="D24">
         <v>0</v>
       </c>
@@ -1471,7 +1451,6 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25"/>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1483,7 +1462,6 @@
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26"/>
       <c r="D26">
         <v>0</v>
       </c>
@@ -1495,7 +1473,6 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27"/>
       <c r="D27">
         <v>0</v>
       </c>
@@ -1507,7 +1484,6 @@
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28"/>
       <c r="D28">
         <v>0</v>
       </c>
@@ -1519,7 +1495,6 @@
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29"/>
       <c r="D29">
         <v>0</v>
       </c>
@@ -1531,7 +1506,6 @@
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30"/>
       <c r="D30">
         <v>0</v>
       </c>
@@ -1543,7 +1517,6 @@
       <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C31"/>
       <c r="D31">
         <v>0</v>
       </c>
@@ -1555,7 +1528,6 @@
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32"/>
       <c r="D32">
         <v>0</v>
       </c>
@@ -1567,7 +1539,6 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C33"/>
       <c r="D33">
         <v>0</v>
       </c>
@@ -1579,7 +1550,6 @@
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34"/>
       <c r="D34">
         <v>0</v>
       </c>
@@ -1591,7 +1561,6 @@
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35"/>
       <c r="D35">
         <v>0</v>
       </c>
@@ -1603,7 +1572,6 @@
       <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="C36"/>
       <c r="D36">
         <v>0</v>
       </c>
@@ -1615,7 +1583,6 @@
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37"/>
       <c r="D37">
         <v>0</v>
       </c>
@@ -1627,7 +1594,6 @@
       <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="C38"/>
       <c r="D38">
         <v>0</v>
       </c>
@@ -1639,7 +1605,6 @@
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39"/>
       <c r="D39">
         <v>0</v>
       </c>
@@ -1651,7 +1616,6 @@
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C40"/>
       <c r="D40">
         <v>0</v>
       </c>
